--- a/DateBase/orders/Nha Thu_2025-5-7.xlsx
+++ b/DateBase/orders/Nha Thu_2025-5-7.xlsx
@@ -775,6 +775,9 @@
       <c r="C41" t="str">
         <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -836,7 +839,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>06317123820520669215551010510810105201010201010641055520550</v>
+        <v>06317123820520669215551010510810105201010201010641055520555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-5-7.xlsx
+++ b/DateBase/orders/Nha Thu_2025-5-7.xlsx
@@ -841,6 +841,9 @@
       <c r="G2" t="str">
         <v>06317123820520669215551010510810105201010201010641055520555</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
